--- a/Planning/MasterPlanner.xlsx
+++ b/Planning/MasterPlanner.xlsx
@@ -705,7 +705,7 @@
   <dimension ref="B2:N12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Planning/MasterPlanner.xlsx
+++ b/Planning/MasterPlanner.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1800" windowWidth="20490" windowHeight="7515"/>
+    <workbookView xWindow="0" yWindow="2400" windowWidth="20490" windowHeight="7515"/>
   </bookViews>
   <sheets>
     <sheet name="11_7" sheetId="2" r:id="rId1"/>
@@ -94,9 +94,6 @@
     <t>Finish user interface research and design work</t>
   </si>
   <si>
-    <t>Begin research and research and design work on web parser</t>
-  </si>
-  <si>
     <t>Begin research and design for summary gereratior</t>
   </si>
   <si>
@@ -134,6 +131,9 @@
   </si>
   <si>
     <t>Project Complete</t>
+  </si>
+  <si>
+    <t>Begin research and design work on web parser</t>
   </si>
 </sst>
 </file>
@@ -704,8 +704,8 @@
   </sheetPr>
   <dimension ref="B2:N12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -799,7 +799,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
@@ -868,7 +868,7 @@
   <dimension ref="B2:N12"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1041,7 +1041,7 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="2:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
@@ -1190,7 +1190,7 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="2:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
@@ -1251,7 +1251,7 @@
         <v>17</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9" s="19"/>
       <c r="F9" s="19"/>
@@ -1339,7 +1339,7 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="2:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
@@ -1397,13 +1397,13 @@
         <v>2</v>
       </c>
       <c r="C9" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="E9" s="22" t="s">
         <v>27</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>28</v>
       </c>
       <c r="F9" s="19"/>
       <c r="I9" s="5"/>
@@ -1490,7 +1490,7 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="2:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
@@ -1525,7 +1525,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
@@ -1550,16 +1550,16 @@
         <v>2</v>
       </c>
       <c r="C9" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="23" t="s">
         <v>33</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>34</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="4"/>
